--- a/isa_condensed_american_indian_or_alaskan_native_students_data.xlsx
+++ b/isa_condensed_american_indian_or_alaskan_native_students_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,42 +481,12 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t># ISA Proficiency - White</t>
+          <t># ISA Proficiency - American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t># ISA Proficiency - Black or African American</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t># ISA Proficiency - Hispanic or Latino</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t># ISA Proficiency - Asian</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t># ISA Proficiency - Native Hawaiian or Other Pacific Islander</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t># ISA Proficiency - American Indian or Alaska Native</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t># ISA Proficiency - Two or More Races</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t># ISA Proficiency - Children with Disabilities</t>
+          <t>American Indian or Alaska Native Students %</t>
         </is>
       </c>
     </row>
@@ -561,24 +531,10 @@
         <v>31</v>
       </c>
       <c r="J2" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
-      </c>
-      <c r="L2" t="n">
-        <v>27</v>
-      </c>
-      <c r="M2" t="n">
-        <v>9</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="n">
-        <v>8</v>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="n">
-        <v>9</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
